--- a/excel/src/test/resources/salaryEvent.xlsx
+++ b/excel/src/test/resources/salaryEvent.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="202">
   <si>
     <t>工资ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -685,7 +685,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1095,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P128"/>
+  <dimension ref="A1:P129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="O135" sqref="O135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129:N129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6824,6 +6824,47 @@
         <v>2536.9000000000201</v>
       </c>
       <c r="N128" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B129" s="6">
+        <v>201441</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D129" s="6">
+        <v>231</v>
+      </c>
+      <c r="E129" s="6">
+        <v>36.25</v>
+      </c>
+      <c r="F129" s="6">
+        <v>288.39999999999998</v>
+      </c>
+      <c r="G129" s="6">
+        <v>374.2</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I129" s="6">
+        <v>11</v>
+      </c>
+      <c r="J129" s="6">
+        <v>200</v>
+      </c>
+      <c r="K129" s="6">
+        <v>1648</v>
+      </c>
+      <c r="L129" s="6">
+        <v>24670.216</v>
+      </c>
+      <c r="M129" s="6">
+        <v>2536.9000000000201</v>
+      </c>
+      <c r="N129" s="3" t="s">
         <v>137</v>
       </c>
     </row>
